--- a/data/trans_dic/IP16A02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A02-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>49,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>38,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>34,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,83%</t>
+          <t>45,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,19%</t>
+          <t>37,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>48,7%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>52,05%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>45,67%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>31,89%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>48,95%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,27; 48,56</t>
+          <t>37,29; 62,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,53; 53,28</t>
+          <t>29,12; 49,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,26; 49,04</t>
+          <t>24,17; 47,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,46; 50,67</t>
+          <t>33,15; 57,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,78; 51,37</t>
+          <t>20,15; 46,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,3; 58,66</t>
+          <t>26,58; 48,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,98; 60,03</t>
+          <t>20,37; 41,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,37; 50,59</t>
+          <t>39,47; 63,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30,62; 46,4</t>
+          <t>33,26; 51,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,16; 53,21</t>
+          <t>30,63; 45,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,0; 51,97</t>
+          <t>25,05; 39,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,48; 47,86</t>
+          <t>40,39; 56,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,26%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>40,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>39,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,65%</t>
+          <t>49,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>48,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>52,05%</t>
+          <t>39,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>45,67%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>40,29%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>37,29; 62,61</t>
+          <t>27,27; 48,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,12; 49,25</t>
+          <t>29,53; 53,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,17; 47,56</t>
+          <t>26,26; 49,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,15; 57,59</t>
+          <t>30,46; 50,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,15; 46,39</t>
+          <t>27,78; 51,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,58; 48,33</t>
+          <t>38,3; 58,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,37; 41,63</t>
+          <t>37,98; 60,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,47; 63,33</t>
+          <t>26,37; 50,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>33,26; 51,33</t>
+          <t>30,62; 46,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,63; 45,26</t>
+          <t>37,16; 53,21</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,05; 39,76</t>
+          <t>36,0; 51,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>40,39; 56,86</t>
+          <t>31,48; 47,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A02-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>40,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>38,81%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>38,03%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>49,43%</t>
+          <t>44,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,02%</t>
+          <t>27,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,63%</t>
+          <t>50,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>36,89%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,95%</t>
+          <t>54,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32,15%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>39,01%</t>
+          <t>44,4%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>37,45%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>50,92%</t>
+          <t>48,69%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,06; 50,17</t>
+          <t>27,24; 57,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,5; 47,43</t>
+          <t>27,94; 51,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,84; 49,33</t>
+          <t>25,89; 53,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,16; 61,25</t>
+          <t>29,39; 61,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,86; 38,39</t>
+          <t>15,28; 42,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,24; 49,73</t>
+          <t>39,68; 61,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,33; 47,93</t>
+          <t>20,75; 45,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,43; 68,6</t>
+          <t>35,69; 74,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,0; 39,58</t>
+          <t>24,29; 43,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,28; 45,43</t>
+          <t>36,74; 52,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,06; 45,15</t>
+          <t>27,04; 46,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,25; 60,42</t>
+          <t>37,49; 60,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>46,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,26%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>45,69%</t>
+          <t>47,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,65%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>42,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,05%</t>
+          <t>47,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>31,89%</t>
+          <t>38,54%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>47,63%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,29; 62,61</t>
+          <t>34,59; 57,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,12; 49,25</t>
+          <t>28,94; 47,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,17; 47,56</t>
+          <t>24,26; 46,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,15; 57,59</t>
+          <t>35,73; 60,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,15; 46,39</t>
+          <t>22,33; 44,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,58; 48,33</t>
+          <t>22,01; 41,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,37; 41,63</t>
+          <t>31,92; 53,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39,47; 63,33</t>
+          <t>35,46; 58,96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,26; 51,33</t>
+          <t>31,92; 47,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,63; 45,26</t>
+          <t>27,64; 40,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,05; 39,76</t>
+          <t>30,99; 46,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>40,39; 56,86</t>
+          <t>39,81; 55,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>35,57%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>41,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>38,77%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,83%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,61%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,19%</t>
+          <t>44,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>48,7%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,66%</t>
+          <t>62,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>32,76%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>45,67%</t>
+          <t>43,02%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>52,19%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,27; 48,56</t>
+          <t>19,56; 50,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,53; 53,28</t>
+          <t>28,66; 58,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,26; 49,04</t>
+          <t>27,54; 52,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,46; 50,67</t>
+          <t>30,82; 57,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,78; 51,37</t>
+          <t>16,35; 47,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,3; 58,66</t>
+          <t>30,9; 57,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>37,98; 60,03</t>
+          <t>19,15; 43,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,37; 50,59</t>
+          <t>48,77; 73,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,62; 46,4</t>
+          <t>23,08; 45,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,16; 53,21</t>
+          <t>32,42; 52,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,0; 51,97</t>
+          <t>25,41; 42,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,48; 47,86</t>
+          <t>42,57; 61,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41,23%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>40,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>41,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,96%</t>
+          <t>40,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>41,95%</t>
+          <t>48,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>51,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,3%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,38%</t>
+          <t>39,6%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>43,94%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>37,33%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,93; 47,9</t>
+          <t>26,99; 52,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>33,35; 45,05</t>
+          <t>26,15; 53,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,62; 44,17</t>
+          <t>20,36; 48,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,49; 50,92</t>
+          <t>29,43; 53,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,2; 40,04</t>
+          <t>25,97; 56,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,18; 47,32</t>
+          <t>35,56; 64,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,13; 45,07</t>
+          <t>37,18; 65,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,03; 53,56</t>
+          <t>17,19; 45,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,06; 42,15</t>
+          <t>30,35; 49,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,21; 44,92</t>
+          <t>35,35; 54,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,52; 42,23</t>
+          <t>34,03; 54,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>40,29; 50,36</t>
+          <t>27,64; 46,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>41,23%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>39,02%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>36,74%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>44,08%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>32,96%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>41,95%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38,69%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46,3%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>37,38%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>40,47%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>37,77%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>45,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>34,64; 47,65</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>32,8; 44,44</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>30,09; 43,87</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>38,17; 51,77</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>26,97; 40,1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>36,19; 48,06</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32,41; 44,75</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37,88; 54,12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>32,47; 42,48</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>36,23; 44,85</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>33,41; 42,33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>39,81; 49,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP16A02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A02-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,24; 57,78</t>
+          <t>26,89; 55,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,94; 51,15</t>
+          <t>26,66; 50,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,89; 53,91</t>
+          <t>26,33; 53,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,39; 61,23</t>
+          <t>27,27; 59,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,28; 42,01</t>
+          <t>15,64; 40,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,68; 61,37</t>
+          <t>38,46; 62,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,75; 45,86</t>
+          <t>20,03; 44,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,69; 74,26</t>
+          <t>35,24; 71,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,29; 43,84</t>
+          <t>24,42; 44,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,74; 52,83</t>
+          <t>36,58; 52,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,04; 46,54</t>
+          <t>27,15; 47,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>37,49; 60,94</t>
+          <t>36,95; 61,25</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,59; 57,68</t>
+          <t>34,87; 57,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,94; 47,93</t>
+          <t>28,31; 47,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,26; 46,57</t>
+          <t>24,51; 45,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,73; 60,15</t>
+          <t>35,28; 59,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,33; 44,98</t>
+          <t>22,54; 44,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,01; 41,34</t>
+          <t>21,95; 41,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,92; 53,35</t>
+          <t>31,93; 53,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,46; 58,96</t>
+          <t>35,41; 60,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,92; 47,81</t>
+          <t>32,98; 48,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,64; 40,62</t>
+          <t>28,64; 41,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,99; 46,06</t>
+          <t>31,76; 47,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,81; 55,88</t>
+          <t>39,39; 56,94</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,56; 50,85</t>
+          <t>20,89; 52,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,66; 58,66</t>
+          <t>28,35; 56,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,54; 52,73</t>
+          <t>26,56; 51,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,82; 57,45</t>
+          <t>30,63; 57,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,35; 47,07</t>
+          <t>15,92; 45,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,9; 57,27</t>
+          <t>31,65; 58,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,15; 43,32</t>
+          <t>18,32; 41,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,77; 73,86</t>
+          <t>49,33; 74,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,08; 45,29</t>
+          <t>22,58; 44,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>32,42; 52,7</t>
+          <t>33,43; 52,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,41; 42,83</t>
+          <t>25,2; 42,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>42,57; 61,34</t>
+          <t>42,58; 61,29</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,99; 52,47</t>
+          <t>27,2; 52,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,15; 53,35</t>
+          <t>26,94; 55,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,36; 48,65</t>
+          <t>20,6; 51,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,43; 53,81</t>
+          <t>30,14; 54,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,97; 56,79</t>
+          <t>26,13; 55,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,56; 64,32</t>
+          <t>34,82; 61,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,18; 65,29</t>
+          <t>35,9; 64,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,19; 45,52</t>
+          <t>17,58; 45,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,35; 49,72</t>
+          <t>30,0; 48,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,35; 54,32</t>
+          <t>35,32; 54,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,03; 54,4</t>
+          <t>33,11; 53,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,64; 46,82</t>
+          <t>26,95; 46,93</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,64; 47,65</t>
+          <t>34,55; 48,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,8; 44,44</t>
+          <t>33,0; 44,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,09; 43,87</t>
+          <t>30,44; 43,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,17; 51,77</t>
+          <t>37,44; 50,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,97; 40,1</t>
+          <t>26,1; 40,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,19; 48,06</t>
+          <t>36,11; 48,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,41; 44,75</t>
+          <t>33,05; 45,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,88; 54,12</t>
+          <t>37,46; 53,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,47; 42,48</t>
+          <t>32,85; 42,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36,23; 44,85</t>
+          <t>36,15; 44,44</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,41; 42,33</t>
+          <t>33,32; 42,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,81; 49,96</t>
+          <t>39,53; 50,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP16A02-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>27,4%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>50,24%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32,13%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>53,99%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>40,54%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>38,81%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>39,38%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>44,6%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>27,4%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>50,24%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>32,13%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>54,05%</t>
+          <t>43,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>48,69%</t>
+          <t>47,7%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,89; 55,66</t>
+          <t>15,75; 41,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,66; 50,4</t>
+          <t>38,54; 61,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,33; 53,22</t>
+          <t>19,79; 46,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,27; 59,82</t>
+          <t>35,03; 71,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,64; 40,72</t>
+          <t>25,16; 55,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,46; 62,42</t>
+          <t>26,33; 49,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,03; 44,31</t>
+          <t>24,44; 54,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,24; 71,87</t>
+          <t>27,78; 57,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,42; 44,39</t>
+          <t>25,45; 44,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,58; 52,95</t>
+          <t>36,07; 52,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,15; 47,01</t>
+          <t>26,67; 45,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,95; 61,25</t>
+          <t>35,65; 60,46</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>33,07%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30,55%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>42,08%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>46,58%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>46,04%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>37,58%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>34,67%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>47,62%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>33,07%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>30,55%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>42,08%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,64%</t>
+          <t>47,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>47,63%</t>
+          <t>47,05%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,87; 57,25</t>
+          <t>22,55; 45,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,31; 47,21</t>
+          <t>21,41; 40,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,51; 45,87</t>
+          <t>31,39; 52,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,28; 59,13</t>
+          <t>33,94; 59,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,54; 44,7</t>
+          <t>34,41; 57,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,95; 41,83</t>
+          <t>28,25; 46,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,93; 53,37</t>
+          <t>23,82; 46,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,41; 60,73</t>
+          <t>35,94; 60,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,98; 48,66</t>
+          <t>32,44; 48,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,64; 41,2</t>
+          <t>27,81; 41,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,76; 47,45</t>
+          <t>30,99; 46,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>39,39; 56,94</t>
+          <t>38,47; 56,66</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>29,78%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>44,38%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>29,05%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>61,35%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>35,57%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>41,44%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>38,77%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>43,58%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>29,78%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>44,38%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>29,05%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>62,37%</t>
+          <t>43,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>52,19%</t>
+          <t>51,46%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,89; 52,68</t>
+          <t>16,42; 48,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,35; 56,4</t>
+          <t>31,47; 57,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,56; 51,87</t>
+          <t>19,1; 40,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,63; 57,65</t>
+          <t>46,95; 73,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,92; 45,8</t>
+          <t>20,33; 50,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,65; 58,34</t>
+          <t>28,39; 55,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,32; 41,38</t>
+          <t>26,32; 51,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,33; 74,07</t>
+          <t>30,42; 56,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,58; 44,37</t>
+          <t>22,41; 44,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,43; 52,61</t>
+          <t>33,71; 53,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,2; 42,2</t>
+          <t>25,56; 41,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>42,58; 61,29</t>
+          <t>40,3; 60,68</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>40,41%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48,83%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>51,2%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23,57%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>38,97%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>40,32%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>34,23%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>41,64%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>40,41%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>48,83%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>51,2%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>41,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>31,88%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,2; 52,48</t>
+          <t>24,77; 53,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,94; 55,01</t>
+          <t>34,97; 63,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,6; 51,29</t>
+          <t>37,89; 65,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,14; 54,2</t>
+          <t>8,03; 41,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,13; 55,22</t>
+          <t>27,89; 52,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,82; 61,9</t>
+          <t>26,55; 54,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,9; 64,21</t>
+          <t>20,98; 50,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,58; 45,74</t>
+          <t>31,06; 54,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,0; 48,71</t>
+          <t>30,42; 48,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,32; 54,57</t>
+          <t>35,41; 55,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,11; 53,97</t>
+          <t>34,02; 54,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,95; 46,93</t>
+          <t>16,83; 43,38</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>32,96%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>41,95%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>38,69%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>40,24%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>41,23%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>39,02%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>36,74%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>44,08%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>32,96%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>41,95%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>38,69%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>46,3%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>42,12%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,55; 48,08</t>
+          <t>26,2; 40,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,0; 44,92</t>
+          <t>35,18; 47,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,44; 43,65</t>
+          <t>33,13; 45,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,44; 50,6</t>
+          <t>24,21; 50,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,1; 40,03</t>
+          <t>34,93; 47,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,11; 48,13</t>
+          <t>33,35; 45,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,05; 45,32</t>
+          <t>30,62; 44,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,46; 53,25</t>
+          <t>37,44; 50,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,85; 42,4</t>
+          <t>33,06; 42,15</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36,15; 44,44</t>
+          <t>36,21; 44,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,32; 42,19</t>
+          <t>33,52; 42,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,53; 50,29</t>
+          <t>33,13; 48,3</t>
         </is>
       </c>
     </row>
